--- a/实习僧量化实习数据爬取/quant_position.xlsx
+++ b/实习僧量化实习数据爬取/quant_position.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steven/Documents/Github/Practice_project/实习僧量化实习数据爬取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="175">
   <si>
     <t>任职要求</t>
   </si>
@@ -280,7 +290,7 @@
     <t>量化策略投资助理实习</t>
   </si>
   <si>
-    <t xml:space="preserve">1、协助股票、股指、国债、期权等量化策略开发、量化交易系统开发；2、协助高频数据分析，中金所、上期所套利策略研究；3、协助对现有的策略进行回测与跟踪；4. 协助投资经理完成交易指令跟踪和交易报告；5、部门交办的其他工作。  </t>
+    <t>1、协助股票、股指、国债、期权等量化策略开发、量化交易系统开发；2、协助高频数据分析，中金所、上期所套利策略研究；3、协助对现有的策略进行回测与跟踪；4. 协助投资经理完成交易指令跟踪和交易报告；5、部门交办的其他工作。  </t>
   </si>
   <si>
     <t>25-50/天</t>
@@ -304,7 +314,7 @@
     <t>量化交易员</t>
   </si>
   <si>
-    <t xml:space="preserve">1、协助基金经理进行期货，股票以及期权市场的数据整理、策略设计与开发回测。2、研究各类相关文献，结合直观的市场经验，探索尝试前沿的量化交易模型。 </t>
+    <t>1、协助基金经理进行期货，股票以及期权市场的数据整理、策略设计与开发回测。2、研究各类相关文献，结合直观的市场经验，探索尝试前沿的量化交易模型。 </t>
   </si>
   <si>
     <t>上海呈瑞投资管理</t>
@@ -382,7 +392,7 @@
     <t>实习量化研究员</t>
   </si>
   <si>
-    <t xml:space="preserve">1.量化投资策略研究和系统开发，需要有较强的编程能力和数理基础，自学能力强，对金融感兴趣。 </t>
+    <t>1.量化投资策略研究和系统开发，需要有较强的编程能力和数理基础，自学能力强，对金融感兴趣。 </t>
   </si>
   <si>
     <t>广州 丨</t>
@@ -508,7 +518,7 @@
     <t>2017-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">1.会使用Phthon，Matlab，或者Python等统计工具。能独立完成一些基本的模型构建和数据处理2.金融工程、计量经济、计算机、数学、统计相关专业本科生或以上学历3.具有很强的学习能力，对商品期货和金融期货有一定的了解。之前有量化研究或者金融工程的相关工作经验者优先。4.保证一周至少三天以上的实习时间。 </t>
+    <t>1.会使用Phthon，Matlab，或者Python等统计工具。能独立完成一些基本的模型构建和数据处理2.金融工程、计量经济、计算机、数学、统计相关专业本科生或以上学历3.具有很强的学习能力，对商品期货和金融期货有一定的了解。之前有量化研究或者金融工程的相关工作经验者优先。4.保证一周至少三天以上的实习时间。 </t>
   </si>
   <si>
     <t>期报投资</t>
@@ -544,23 +554,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -575,26 +592,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -882,50 +913,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="10" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c t="s" r="B1" s="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="H1" s="1">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="I1" s="1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="J1" s="1">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c t="n" r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -956,11 +990,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c t="n" r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -970,7 +1003,6 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -984,8 +1016,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c t="n" r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1016,8 +1048,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c t="n" r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1048,11 +1080,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c t="n" r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -1062,7 +1093,6 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>20</v>
       </c>
@@ -1076,11 +1106,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c t="n" r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -1090,7 +1119,6 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>20</v>
       </c>
@@ -1104,11 +1132,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c t="n" r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -1118,7 +1145,6 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>44</v>
       </c>
@@ -1132,11 +1158,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c t="n" r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
       <c r="C9" t="s">
         <v>42</v>
       </c>
@@ -1146,7 +1171,6 @@
       <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>44</v>
       </c>
@@ -1160,11 +1184,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c t="n" r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s"/>
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -1174,7 +1197,6 @@
       <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>44</v>
       </c>
@@ -1188,11 +1210,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c t="n" r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s"/>
       <c r="C11" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1223,6 @@
       <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>20</v>
       </c>
@@ -1216,8 +1236,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c t="n" r="A12" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1248,11 +1268,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c t="n" r="A13" s="1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s"/>
       <c r="C13" t="s">
         <v>56</v>
       </c>
@@ -1262,7 +1281,6 @@
       <c r="E13" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>20</v>
       </c>
@@ -1276,11 +1294,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c t="n" r="A14" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s"/>
       <c r="C14" t="s">
         <v>56</v>
       </c>
@@ -1290,7 +1307,6 @@
       <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>20</v>
       </c>
@@ -1304,11 +1320,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c t="n" r="A15" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s"/>
       <c r="C15" t="s">
         <v>61</v>
       </c>
@@ -1318,7 +1333,6 @@
       <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>44</v>
       </c>
@@ -1328,13 +1342,11 @@
       <c r="I15" t="s">
         <v>40</v>
       </c>
-      <c r="J15" t="s"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c t="n" r="A16" s="1">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s"/>
       <c r="C16" t="s">
         <v>63</v>
       </c>
@@ -1344,7 +1356,6 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>44</v>
       </c>
@@ -1358,11 +1369,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c t="n" r="A17" s="1">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s"/>
       <c r="C17" t="s">
         <v>68</v>
       </c>
@@ -1372,7 +1382,6 @@
       <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s"/>
       <c r="G17" t="s">
         <v>20</v>
       </c>
@@ -1386,11 +1395,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c t="n" r="A18" s="1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s"/>
       <c r="C18" t="s">
         <v>70</v>
       </c>
@@ -1400,7 +1408,6 @@
       <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>44</v>
       </c>
@@ -1414,11 +1421,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c t="n" r="A19" s="1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s"/>
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -1428,7 +1434,6 @@
       <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>20</v>
       </c>
@@ -1442,11 +1447,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c t="n" r="A20" s="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
       <c r="C20" t="s">
         <v>77</v>
       </c>
@@ -1456,7 +1460,6 @@
       <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>14</v>
       </c>
@@ -1470,11 +1473,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c t="n" r="A21" s="1">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s"/>
       <c r="C21" t="s">
         <v>81</v>
       </c>
@@ -1484,7 +1486,6 @@
       <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>44</v>
       </c>
@@ -1498,11 +1499,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c t="n" r="A22" s="1">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s"/>
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -1512,7 +1512,6 @@
       <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>20</v>
       </c>
@@ -1526,8 +1525,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c t="n" r="A23" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1558,11 +1557,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c t="n" r="A24" s="1">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
@@ -1572,7 +1570,6 @@
       <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>14</v>
       </c>
@@ -1586,8 +1583,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c t="n" r="A25" s="1">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1618,11 +1615,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c t="n" r="A26" s="1">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s"/>
       <c r="C26" t="s">
         <v>97</v>
       </c>
@@ -1632,7 +1628,6 @@
       <c r="E26" t="s">
         <v>98</v>
       </c>
-      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>99</v>
       </c>
@@ -1642,13 +1637,11 @@
       <c r="I26" t="s">
         <v>92</v>
       </c>
-      <c r="J26" t="s"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c t="n" r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
       <c r="C27" t="s">
         <v>100</v>
       </c>
@@ -1658,7 +1651,6 @@
       <c r="E27" t="s">
         <v>101</v>
       </c>
-      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>20</v>
       </c>
@@ -1668,13 +1660,11 @@
       <c r="I27" t="s">
         <v>92</v>
       </c>
-      <c r="J27" t="s"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c t="n" r="A28" s="1">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s"/>
       <c r="C28" t="s">
         <v>102</v>
       </c>
@@ -1684,7 +1674,6 @@
       <c r="E28" t="s">
         <v>103</v>
       </c>
-      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>44</v>
       </c>
@@ -1694,13 +1683,11 @@
       <c r="I28" t="s">
         <v>92</v>
       </c>
-      <c r="J28" t="s"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c t="n" r="A29" s="1">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s"/>
       <c r="C29" t="s">
         <v>104</v>
       </c>
@@ -1710,7 +1697,6 @@
       <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>105</v>
       </c>
@@ -1724,8 +1710,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c t="n" r="A30" s="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1756,11 +1742,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c t="n" r="A31" s="1">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s"/>
       <c r="C31" t="s">
         <v>90</v>
       </c>
@@ -1770,7 +1755,6 @@
       <c r="E31" t="s">
         <v>112</v>
       </c>
-      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>14</v>
       </c>
@@ -1784,11 +1768,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c t="n" r="A32" s="1">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s"/>
       <c r="C32" t="s">
         <v>113</v>
       </c>
@@ -1798,7 +1781,6 @@
       <c r="E32" t="s">
         <v>114</v>
       </c>
-      <c r="F32" t="s"/>
       <c r="G32" t="s">
         <v>115</v>
       </c>
@@ -1812,11 +1794,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c t="n" r="A33" s="1">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s"/>
       <c r="C33" t="s">
         <v>117</v>
       </c>
@@ -1826,7 +1807,6 @@
       <c r="E33" t="s">
         <v>118</v>
       </c>
-      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>14</v>
       </c>
@@ -1840,8 +1820,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c t="n" r="A34" s="1">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1872,8 +1852,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c t="n" r="A35" s="1">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1904,11 +1884,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c t="n" r="A36" s="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s"/>
       <c r="C36" t="s">
         <v>129</v>
       </c>
@@ -1918,7 +1897,6 @@
       <c r="E36" t="s">
         <v>130</v>
       </c>
-      <c r="F36" t="s"/>
       <c r="G36" t="s">
         <v>131</v>
       </c>
@@ -1932,11 +1910,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c t="n" r="A37" s="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s"/>
       <c r="C37" t="s">
         <v>134</v>
       </c>
@@ -1946,7 +1923,6 @@
       <c r="E37" t="s">
         <v>135</v>
       </c>
-      <c r="F37" t="s"/>
       <c r="G37" t="s">
         <v>20</v>
       </c>
@@ -1960,11 +1936,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c t="n" r="A38" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s"/>
       <c r="C38" t="s">
         <v>138</v>
       </c>
@@ -1974,7 +1949,6 @@
       <c r="E38" t="s">
         <v>26</v>
       </c>
-      <c r="F38" t="s"/>
       <c r="G38" t="s">
         <v>44</v>
       </c>
@@ -1988,11 +1962,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c t="n" r="A39" s="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s"/>
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -2002,7 +1975,6 @@
       <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="F39" t="s"/>
       <c r="G39" t="s">
         <v>44</v>
       </c>
@@ -2016,8 +1988,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c t="n" r="A40" s="1">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -2048,8 +2020,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c t="n" r="A41" s="1">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -2080,8 +2052,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c t="n" r="A42" s="1">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -2112,8 +2084,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c t="n" r="A43" s="1">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -2140,10 +2112,9 @@
       <c r="I43" t="s">
         <v>163</v>
       </c>
-      <c r="J43" t="s"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c t="n" r="A44" s="1">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -2174,11 +2145,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c t="n" r="A45" s="1">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s"/>
       <c r="C45" t="s">
         <v>169</v>
       </c>
@@ -2188,7 +2158,6 @@
       <c r="E45" t="s">
         <v>170</v>
       </c>
-      <c r="F45" t="s"/>
       <c r="G45" t="s">
         <v>105</v>
       </c>
@@ -2202,11 +2171,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c t="n" r="A46" s="1">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s"/>
       <c r="C46" t="s">
         <v>172</v>
       </c>
@@ -2216,7 +2184,6 @@
       <c r="E46" t="s">
         <v>173</v>
       </c>
-      <c r="F46" t="s"/>
       <c r="G46" t="s">
         <v>44</v>
       </c>
@@ -2231,6 +2198,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>